--- a/pred_ohlcv/54_21/2019-10-18 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 GXC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3111.45025292</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2669.33457706</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4342.29487706</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4557.96487706</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4517.23097706</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5003.01067706</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5312.43797706</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2239.51782294</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2242.31342294</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4887.31592294</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5537.31592294</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5777.31592294</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5777.31592294</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4927.541022939999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5151.833622939999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4498.434722939999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2952.330922939999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2947.271522939999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2873.298522939999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2447.133522939999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7514.121822939999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6998.700322939999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>6748.700322939999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>17684.38363818</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>19187.91593817999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>20363.91593817999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>20078.19503817999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19354.17283817999</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>18710.31763817999</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>19040.05243817999</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>18878.06943817999</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>17663.72403817999</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>17438.72403817999</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>17513.22403817999</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>13810.06503817999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>13685.53803817999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>13684.80493817999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 GXC ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2669.33457706</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4445.29487706</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4342.29487706</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4557.96487706</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4517.23097706</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5003.01067706</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5312.43797706</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2239.51782294</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2242.31342294</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4887.31592294</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5537.31592294</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5777.31592294</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5777.31592294</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4927.541022939999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5151.833622939999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4498.434722939999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2952.330922939999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2947.271522939999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2873.298522939999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2447.133522939999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7514.121822939999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6998.700322939999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>6748.700322939999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>17684.38363818</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>19187.91593817999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>20363.91593817999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>21188.19503817999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>20078.19503817999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>19198.77673817999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19354.17283817999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>18710.31763817999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>19040.05243817999</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>18878.06943817999</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>17663.72403817999</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>17438.72403817999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>13810.06503817999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>13685.53803817999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>13726.30513817999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
